--- a/examples/publishers-output.xlsx
+++ b/examples/publishers-output.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>{{ | | library }}</t>
+    <t>{{ | | library.name }}</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1602,13 +1602,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.2422" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5234" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.22656" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1406" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1406" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.17188" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1719" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1719" style="1" customWidth="1"/>
     <col min="6" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">

--- a/examples/publishers-output.xlsx
+++ b/examples/publishers-output.xlsx
@@ -1656,7 +1656,7 @@
       <c r="H3" s="16"/>
     </row>
     <row r="4" ht="31.15" customHeight="1">
-      <c r="A4" s="17"/>
+      <c r="A4" s="11"/>
       <c r="B4" t="s" s="12">
         <v>11</v>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="H4" s="21"/>
     </row>
     <row r="5" ht="31.15" customHeight="1">
-      <c r="A5" s="17"/>
+      <c r="A5" s="11"/>
       <c r="B5" t="s" s="12">
         <v>14</v>
       </c>
@@ -1686,7 +1686,7 @@
       <c r="H5" s="21"/>
     </row>
     <row r="6" ht="31.15" customHeight="1">
-      <c r="A6" s="17"/>
+      <c r="A6" s="11"/>
       <c r="B6" t="s" s="12">
         <v>16</v>
       </c>
@@ -1700,7 +1700,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" ht="31.15" customHeight="1">
-      <c r="A7" s="17"/>
+      <c r="A7" s="11"/>
       <c r="B7" t="s" s="12">
         <v>18</v>
       </c>
@@ -1730,7 +1730,7 @@
       <c r="H8" s="21"/>
     </row>
     <row r="9" ht="31.15" customHeight="1">
-      <c r="A9" s="17"/>
+      <c r="A9" s="11"/>
       <c r="B9" t="s" s="12">
         <v>22</v>
       </c>
@@ -1744,7 +1744,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" ht="31.15" customHeight="1">
-      <c r="A10" s="17"/>
+      <c r="A10" s="11"/>
       <c r="B10" t="s" s="12">
         <v>24</v>
       </c>
@@ -1774,7 +1774,7 @@
       <c r="H11" s="21"/>
     </row>
     <row r="12" ht="31.15" customHeight="1">
-      <c r="A12" s="17"/>
+      <c r="A12" s="11"/>
       <c r="B12" t="s" s="12">
         <v>14</v>
       </c>
@@ -1788,7 +1788,7 @@
       <c r="H12" s="21"/>
     </row>
     <row r="13" ht="31.15" customHeight="1">
-      <c r="A13" s="17"/>
+      <c r="A13" s="11"/>
       <c r="B13" t="s" s="12">
         <v>30</v>
       </c>
